--- a/misc/jam/JPC.CRM.QC-PSC03-01.3.xlsx
+++ b/misc/jam/JPC.CRM.QC-PSC03-01.3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pouya\SQL_Tutorial_My_Files\misc\jam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B061CDF-D1E3-4886-A069-1059FC05C7B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB6CA02F-11D9-436C-B575-2A0242C1D783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="134">
   <si>
     <t>نام فرایند</t>
   </si>
@@ -468,6 +468,10 @@
   </si>
   <si>
     <t>مثلا در ثبت فرم رضایت سنجی، کرسر رو هیچ فیلدی به طور پیش فرض نیست.</t>
+  </si>
+  <si>
+    <t>بعد از اتمام تاریخ نظر سنجی، همچنان مشتری توانست فرم تکمیل کند.
+(دو دقیقه بعد از پایان)</t>
   </si>
 </sst>
 </file>
@@ -721,7 +725,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -748,6 +752,72 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -760,74 +830,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -853,8 +860,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1159,8 +1169,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E130"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A75" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A82" sqref="A82:C82"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A107" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A127" sqref="A127:C129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
@@ -1208,29 +1218,29 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="15">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="12"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="34"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
     </row>
     <row r="5" spans="1:5" ht="15">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
       <c r="D5" s="1" t="s">
         <v>43</v>
       </c>
@@ -1239,110 +1249,110 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="54.75" customHeight="1">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
       <c r="D6" s="5" t="s">
         <v>117</v>
       </c>
       <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:5" ht="53.25" customHeight="1">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
       <c r="D7" s="5" t="s">
         <v>117</v>
       </c>
       <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:5" ht="45" customHeight="1">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
       <c r="D8" s="5" t="s">
         <v>117</v>
       </c>
       <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:5" ht="44.25" customHeight="1">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
       <c r="D9" s="5" t="s">
         <v>117</v>
       </c>
       <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:5" ht="36" customHeight="1">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
       <c r="D10" s="5" t="s">
         <v>117</v>
       </c>
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:5" ht="55.5" customHeight="1">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
       <c r="D11" s="5" t="s">
         <v>117</v>
       </c>
       <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:5" ht="55.5" customHeight="1">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
       <c r="D12" s="5" t="s">
         <v>117</v>
       </c>
       <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:5" ht="42" customHeight="1">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
       <c r="D13" s="5" t="s">
         <v>117</v>
       </c>
       <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:5" ht="49.5" customHeight="1">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
       <c r="D14" s="7" t="s">
         <v>117</v>
       </c>
       <c r="E14" s="8"/>
     </row>
     <row r="15" spans="1:5" ht="41.25" customHeight="1">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
       <c r="D15" s="7" t="s">
         <v>117</v>
       </c>
@@ -1351,66 +1361,66 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="59.25" customHeight="1">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
       <c r="D16" s="5" t="s">
         <v>117</v>
       </c>
       <c r="E16" s="4"/>
     </row>
     <row r="17" spans="1:5" ht="24.75" customHeight="1">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
       <c r="D17" s="5" t="s">
         <v>117</v>
       </c>
       <c r="E17" s="4"/>
     </row>
     <row r="18" spans="1:5" ht="25.5">
-      <c r="A18" s="26" t="s">
+      <c r="A18" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="19"/>
-      <c r="C18" s="20"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="21"/>
       <c r="D18" s="5" t="s">
         <v>117</v>
       </c>
       <c r="E18" s="4"/>
     </row>
     <row r="19" spans="1:5" ht="25.5">
-      <c r="A19" s="26" t="s">
+      <c r="A19" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="B19" s="19"/>
-      <c r="C19" s="20"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="21"/>
       <c r="D19" s="7" t="s">
         <v>117</v>
       </c>
       <c r="E19" s="8"/>
     </row>
     <row r="20" spans="1:5" ht="25.5">
-      <c r="A20" s="26" t="s">
+      <c r="A20" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="19"/>
-      <c r="C20" s="20"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="21"/>
       <c r="D20" s="5" t="s">
         <v>117</v>
       </c>
       <c r="E20" s="4"/>
     </row>
     <row r="21" spans="1:5" ht="25.5">
-      <c r="A21" s="26" t="s">
+      <c r="A21" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="19"/>
-      <c r="C21" s="20"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="21"/>
       <c r="D21" s="5" t="s">
         <v>99</v>
       </c>
@@ -1419,627 +1429,627 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="37.5" customHeight="1">
-      <c r="A22" s="26" t="s">
+      <c r="A22" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="19"/>
-      <c r="C22" s="20"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="21"/>
       <c r="D22" s="5" t="s">
         <v>117</v>
       </c>
       <c r="E22" s="4"/>
     </row>
     <row r="23" spans="1:5" ht="25.5">
-      <c r="A23" s="26" t="s">
+      <c r="A23" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="19"/>
-      <c r="C23" s="20"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="21"/>
       <c r="D23" s="5" t="s">
         <v>117</v>
       </c>
       <c r="E23" s="4"/>
     </row>
     <row r="24" spans="1:5" ht="36.75" customHeight="1">
-      <c r="A24" s="26" t="s">
+      <c r="A24" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="B24" s="19"/>
-      <c r="C24" s="20"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="21"/>
       <c r="D24" s="5" t="s">
         <v>117</v>
       </c>
       <c r="E24" s="4"/>
     </row>
     <row r="25" spans="1:5" ht="54" customHeight="1">
-      <c r="A25" s="26" t="s">
+      <c r="A25" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="B25" s="19"/>
-      <c r="C25" s="20"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="21"/>
       <c r="D25" s="5" t="s">
         <v>117</v>
       </c>
       <c r="E25" s="4"/>
     </row>
     <row r="26" spans="1:5" ht="18" customHeight="1">
-      <c r="A26" s="17" t="s">
+      <c r="A26" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
       <c r="D26" s="5" t="s">
         <v>117</v>
       </c>
       <c r="E26" s="4"/>
     </row>
     <row r="27" spans="1:5" ht="33.75" customHeight="1">
-      <c r="A27" s="17" t="s">
+      <c r="A27" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
       <c r="D27" s="5" t="s">
         <v>117</v>
       </c>
       <c r="E27" s="4"/>
     </row>
     <row r="28" spans="1:5" ht="54.75" customHeight="1">
-      <c r="A28" s="17" t="s">
+      <c r="A28" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
       <c r="D28" s="5" t="s">
         <v>117</v>
       </c>
       <c r="E28" s="4"/>
     </row>
     <row r="29" spans="1:5" ht="40.5" customHeight="1">
-      <c r="A29" s="17" t="s">
+      <c r="A29" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
       <c r="D29" s="5" t="s">
         <v>117</v>
       </c>
       <c r="E29" s="4"/>
     </row>
     <row r="30" spans="1:5" ht="36.75" customHeight="1">
-      <c r="A30" s="17" t="s">
+      <c r="A30" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
       <c r="D30" s="5" t="s">
         <v>117</v>
       </c>
       <c r="E30" s="4"/>
     </row>
     <row r="31" spans="1:5" ht="25.5">
-      <c r="A31" s="17" t="s">
+      <c r="A31" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
       <c r="D31" s="5" t="s">
         <v>117</v>
       </c>
       <c r="E31" s="4"/>
     </row>
     <row r="32" spans="1:5" ht="25.5">
-      <c r="A32" s="17" t="s">
+      <c r="A32" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
       <c r="D32" s="5" t="s">
         <v>117</v>
       </c>
       <c r="E32" s="4"/>
     </row>
     <row r="33" spans="1:5" ht="25.5">
-      <c r="A33" s="17" t="s">
+      <c r="A33" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
       <c r="D33" s="5" t="s">
         <v>117</v>
       </c>
       <c r="E33" s="4"/>
     </row>
     <row r="34" spans="1:5" ht="25.5">
-      <c r="A34" s="17" t="s">
+      <c r="A34" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
       <c r="D34" s="5" t="s">
         <v>117</v>
       </c>
       <c r="E34" s="4"/>
     </row>
     <row r="35" spans="1:5" ht="25.5">
-      <c r="A35" s="17" t="s">
+      <c r="A35" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
       <c r="D35" s="5" t="s">
         <v>117</v>
       </c>
       <c r="E35" s="4"/>
     </row>
     <row r="36" spans="1:5" ht="25.5">
-      <c r="A36" s="17" t="s">
+      <c r="A36" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
       <c r="D36" s="5" t="s">
         <v>117</v>
       </c>
       <c r="E36" s="4"/>
     </row>
     <row r="37" spans="1:5" ht="39" customHeight="1">
-      <c r="A37" s="17" t="s">
+      <c r="A37" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B37" s="17"/>
-      <c r="C37" s="17"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
       <c r="D37" s="5" t="s">
         <v>117</v>
       </c>
       <c r="E37" s="4"/>
     </row>
     <row r="38" spans="1:5" ht="28.5">
-      <c r="A38" s="17" t="s">
+      <c r="A38" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B38" s="17"/>
-      <c r="C38" s="17"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
       <c r="D38" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="E38" s="27" t="s">
+      <c r="E38" s="10" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="41.25" customHeight="1">
-      <c r="A39" s="17" t="s">
+      <c r="A39" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
       <c r="D39" s="5" t="s">
         <v>117</v>
       </c>
       <c r="E39" s="4"/>
     </row>
     <row r="40" spans="1:5" ht="38.25" customHeight="1">
-      <c r="A40" s="17" t="s">
+      <c r="A40" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="B40" s="17"/>
-      <c r="C40" s="17"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
       <c r="D40" s="5" t="s">
         <v>117</v>
       </c>
       <c r="E40" s="4"/>
     </row>
     <row r="41" spans="1:5" ht="36.75" customHeight="1">
-      <c r="A41" s="17" t="s">
+      <c r="A41" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B41" s="17"/>
-      <c r="C41" s="17"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
       <c r="D41" s="5" t="s">
         <v>117</v>
       </c>
       <c r="E41" s="4"/>
     </row>
     <row r="42" spans="1:5" ht="38.25" customHeight="1">
-      <c r="A42" s="17" t="s">
+      <c r="A42" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B42" s="17"/>
-      <c r="C42" s="17"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
       <c r="D42" s="5" t="s">
         <v>117</v>
       </c>
       <c r="E42" s="4"/>
     </row>
     <row r="43" spans="1:5" ht="25.5">
-      <c r="A43" s="16" t="s">
+      <c r="A43" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="B43" s="16"/>
-      <c r="C43" s="16"/>
+      <c r="B43" s="22"/>
+      <c r="C43" s="22"/>
       <c r="D43" s="5" t="s">
         <v>117</v>
       </c>
       <c r="E43" s="4"/>
     </row>
     <row r="44" spans="1:5" ht="25.5">
-      <c r="A44" s="16" t="s">
+      <c r="A44" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="B44" s="16"/>
-      <c r="C44" s="16"/>
+      <c r="B44" s="22"/>
+      <c r="C44" s="22"/>
       <c r="D44" s="5" t="s">
         <v>117</v>
       </c>
       <c r="E44" s="4"/>
     </row>
     <row r="45" spans="1:5" ht="37.5" customHeight="1">
-      <c r="A45" s="17" t="s">
+      <c r="A45" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B45" s="17"/>
-      <c r="C45" s="17"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
       <c r="D45" s="5" t="s">
         <v>117</v>
       </c>
       <c r="E45" s="4"/>
     </row>
     <row r="46" spans="1:5" ht="25.5">
-      <c r="A46" s="16" t="s">
+      <c r="A46" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="B46" s="16"/>
-      <c r="C46" s="16"/>
+      <c r="B46" s="22"/>
+      <c r="C46" s="22"/>
       <c r="D46" s="5" t="s">
         <v>117</v>
       </c>
       <c r="E46" s="4"/>
     </row>
     <row r="47" spans="1:5" ht="25.5">
-      <c r="A47" s="16" t="s">
+      <c r="A47" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="B47" s="16"/>
-      <c r="C47" s="16"/>
+      <c r="B47" s="22"/>
+      <c r="C47" s="22"/>
       <c r="D47" s="5" t="s">
         <v>117</v>
       </c>
       <c r="E47" s="4"/>
     </row>
     <row r="48" spans="1:5" ht="24.75" customHeight="1">
-      <c r="A48" s="16" t="s">
+      <c r="A48" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="B48" s="16"/>
-      <c r="C48" s="16"/>
+      <c r="B48" s="22"/>
+      <c r="C48" s="22"/>
       <c r="D48" s="5" t="s">
         <v>117</v>
       </c>
       <c r="E48" s="4"/>
     </row>
     <row r="49" spans="1:5" ht="39" customHeight="1">
-      <c r="A49" s="17" t="s">
+      <c r="A49" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B49" s="17"/>
-      <c r="C49" s="17"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="11"/>
       <c r="D49" s="5" t="s">
         <v>117</v>
       </c>
       <c r="E49" s="4"/>
     </row>
     <row r="50" spans="1:5" ht="25.5">
-      <c r="A50" s="16" t="s">
+      <c r="A50" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="B50" s="16"/>
-      <c r="C50" s="16"/>
+      <c r="B50" s="22"/>
+      <c r="C50" s="22"/>
       <c r="D50" s="5" t="s">
         <v>117</v>
       </c>
       <c r="E50" s="4"/>
     </row>
     <row r="51" spans="1:5" ht="40.5" customHeight="1">
-      <c r="A51" s="17" t="s">
+      <c r="A51" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="B51" s="17"/>
-      <c r="C51" s="17"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="11"/>
       <c r="D51" s="5" t="s">
         <v>117</v>
       </c>
       <c r="E51" s="4"/>
     </row>
     <row r="52" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A52" s="16" t="s">
+      <c r="A52" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="B52" s="16"/>
-      <c r="C52" s="16"/>
+      <c r="B52" s="22"/>
+      <c r="C52" s="22"/>
       <c r="D52" s="5" t="s">
         <v>117</v>
       </c>
       <c r="E52" s="4"/>
     </row>
     <row r="53" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A53" s="16" t="s">
+      <c r="A53" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="B53" s="16"/>
-      <c r="C53" s="16"/>
+      <c r="B53" s="22"/>
+      <c r="C53" s="22"/>
       <c r="D53" s="5" t="s">
         <v>117</v>
       </c>
       <c r="E53" s="4"/>
     </row>
     <row r="54" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A54" s="16" t="s">
+      <c r="A54" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="B54" s="16"/>
-      <c r="C54" s="16"/>
+      <c r="B54" s="22"/>
+      <c r="C54" s="22"/>
       <c r="D54" s="5" t="s">
         <v>117</v>
       </c>
       <c r="E54" s="4"/>
     </row>
     <row r="55" spans="1:5" ht="23.25" customHeight="1">
-      <c r="A55" s="16" t="s">
+      <c r="A55" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="B55" s="16"/>
-      <c r="C55" s="16"/>
+      <c r="B55" s="22"/>
+      <c r="C55" s="22"/>
       <c r="D55" s="5" t="s">
         <v>117</v>
       </c>
       <c r="E55" s="4"/>
     </row>
     <row r="56" spans="1:5" ht="35.25" customHeight="1">
-      <c r="A56" s="17" t="s">
+      <c r="A56" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B56" s="17"/>
-      <c r="C56" s="17"/>
+      <c r="B56" s="11"/>
+      <c r="C56" s="11"/>
       <c r="D56" s="5" t="s">
         <v>117</v>
       </c>
       <c r="E56" s="4"/>
     </row>
     <row r="57" spans="1:5" ht="21" customHeight="1">
-      <c r="A57" s="16" t="s">
+      <c r="A57" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="B57" s="16"/>
-      <c r="C57" s="16"/>
+      <c r="B57" s="22"/>
+      <c r="C57" s="22"/>
       <c r="D57" s="5" t="s">
         <v>117</v>
       </c>
       <c r="E57" s="4"/>
     </row>
     <row r="58" spans="1:5" ht="23.25" customHeight="1">
-      <c r="A58" s="16" t="s">
+      <c r="A58" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="B58" s="16"/>
-      <c r="C58" s="16"/>
+      <c r="B58" s="22"/>
+      <c r="C58" s="22"/>
       <c r="D58" s="5" t="s">
         <v>117</v>
       </c>
       <c r="E58" s="4"/>
     </row>
     <row r="59" spans="1:5" ht="40.5" customHeight="1">
-      <c r="A59" s="17" t="s">
+      <c r="A59" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="B59" s="17"/>
-      <c r="C59" s="17"/>
+      <c r="B59" s="11"/>
+      <c r="C59" s="11"/>
       <c r="D59" s="5" t="s">
         <v>117</v>
       </c>
       <c r="E59" s="4"/>
     </row>
     <row r="60" spans="1:5" ht="34.5" customHeight="1">
-      <c r="A60" s="17" t="s">
+      <c r="A60" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="B60" s="17"/>
-      <c r="C60" s="17"/>
+      <c r="B60" s="11"/>
+      <c r="C60" s="11"/>
       <c r="D60" s="5" t="s">
         <v>117</v>
       </c>
       <c r="E60" s="4"/>
     </row>
     <row r="61" spans="1:5" ht="25.5">
-      <c r="A61" s="16" t="s">
+      <c r="A61" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="B61" s="16"/>
-      <c r="C61" s="16"/>
+      <c r="B61" s="22"/>
+      <c r="C61" s="22"/>
       <c r="D61" s="5" t="s">
         <v>117</v>
       </c>
       <c r="E61" s="6"/>
     </row>
     <row r="62" spans="1:5" ht="33.75" customHeight="1">
-      <c r="A62" s="17" t="s">
+      <c r="A62" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="B62" s="17"/>
-      <c r="C62" s="17"/>
+      <c r="B62" s="11"/>
+      <c r="C62" s="11"/>
       <c r="D62" s="5" t="s">
         <v>117</v>
       </c>
       <c r="E62" s="6"/>
     </row>
     <row r="63" spans="1:5" ht="35.25" customHeight="1">
-      <c r="A63" s="17" t="s">
+      <c r="A63" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="B63" s="17"/>
-      <c r="C63" s="17"/>
+      <c r="B63" s="11"/>
+      <c r="C63" s="11"/>
       <c r="D63" s="5" t="s">
         <v>117</v>
       </c>
       <c r="E63" s="6"/>
     </row>
     <row r="64" spans="1:5" ht="32.25" customHeight="1">
-      <c r="A64" s="16" t="s">
+      <c r="A64" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="B64" s="16"/>
-      <c r="C64" s="16"/>
+      <c r="B64" s="22"/>
+      <c r="C64" s="22"/>
       <c r="D64" s="5" t="s">
         <v>117</v>
       </c>
       <c r="E64" s="4"/>
     </row>
     <row r="65" spans="1:5" ht="35.25" customHeight="1">
-      <c r="A65" s="17" t="s">
+      <c r="A65" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="B65" s="17"/>
-      <c r="C65" s="17"/>
+      <c r="B65" s="11"/>
+      <c r="C65" s="11"/>
       <c r="D65" s="5" t="s">
         <v>117</v>
       </c>
       <c r="E65" s="6"/>
     </row>
     <row r="66" spans="1:5" ht="36.75" customHeight="1">
-      <c r="A66" s="17" t="s">
+      <c r="A66" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="B66" s="17"/>
-      <c r="C66" s="17"/>
+      <c r="B66" s="11"/>
+      <c r="C66" s="11"/>
       <c r="D66" s="5" t="s">
         <v>117</v>
       </c>
       <c r="E66" s="6"/>
     </row>
     <row r="67" spans="1:5" ht="40.5" customHeight="1">
-      <c r="A67" s="17" t="s">
+      <c r="A67" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="B67" s="17"/>
-      <c r="C67" s="17"/>
+      <c r="B67" s="11"/>
+      <c r="C67" s="11"/>
       <c r="D67" s="5" t="s">
         <v>117</v>
       </c>
       <c r="E67" s="6"/>
     </row>
     <row r="68" spans="1:5" ht="85.5">
-      <c r="A68" s="16" t="s">
+      <c r="A68" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="B68" s="16"/>
-      <c r="C68" s="16"/>
+      <c r="B68" s="22"/>
+      <c r="C68" s="22"/>
       <c r="D68" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="E68" s="27" t="s">
+      <c r="E68" s="10" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="36.75" customHeight="1">
-      <c r="A69" s="17" t="s">
+      <c r="A69" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="B69" s="17"/>
-      <c r="C69" s="17"/>
+      <c r="B69" s="11"/>
+      <c r="C69" s="11"/>
       <c r="D69" s="5"/>
       <c r="E69" s="6"/>
     </row>
     <row r="70" spans="1:5" ht="36.75" customHeight="1">
-      <c r="A70" s="17" t="s">
+      <c r="A70" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="B70" s="17"/>
-      <c r="C70" s="17"/>
+      <c r="B70" s="11"/>
+      <c r="C70" s="11"/>
       <c r="D70" s="5" t="s">
         <v>117</v>
       </c>
       <c r="E70" s="6"/>
     </row>
     <row r="71" spans="1:5" ht="30" customHeight="1">
-      <c r="A71" s="17" t="s">
+      <c r="A71" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="B71" s="17"/>
-      <c r="C71" s="17"/>
+      <c r="B71" s="11"/>
+      <c r="C71" s="11"/>
       <c r="D71" s="5" t="s">
         <v>117</v>
       </c>
       <c r="E71" s="6"/>
     </row>
     <row r="72" spans="1:5" ht="27" customHeight="1">
-      <c r="A72" s="17" t="s">
+      <c r="A72" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="B72" s="17"/>
-      <c r="C72" s="17"/>
+      <c r="B72" s="11"/>
+      <c r="C72" s="11"/>
       <c r="D72" s="5" t="s">
         <v>117</v>
       </c>
       <c r="E72" s="6"/>
     </row>
     <row r="73" spans="1:5" ht="47.25" customHeight="1">
-      <c r="A73" s="17" t="s">
+      <c r="A73" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="B73" s="17"/>
-      <c r="C73" s="17"/>
+      <c r="B73" s="11"/>
+      <c r="C73" s="11"/>
       <c r="D73" s="5" t="s">
         <v>117</v>
       </c>
       <c r="E73" s="6"/>
     </row>
     <row r="74" spans="1:5" ht="25.5">
-      <c r="A74" s="16" t="s">
+      <c r="A74" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="B74" s="16"/>
-      <c r="C74" s="16"/>
+      <c r="B74" s="22"/>
+      <c r="C74" s="22"/>
       <c r="D74" s="5" t="s">
         <v>117</v>
       </c>
       <c r="E74" s="6"/>
     </row>
     <row r="75" spans="1:5" ht="25.5">
-      <c r="A75" s="16" t="s">
+      <c r="A75" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="B75" s="16"/>
-      <c r="C75" s="16"/>
+      <c r="B75" s="22"/>
+      <c r="C75" s="22"/>
       <c r="D75" s="5" t="s">
         <v>117</v>
       </c>
       <c r="E75" s="4"/>
     </row>
     <row r="76" spans="1:5" ht="25.5">
-      <c r="A76" s="16" t="s">
+      <c r="A76" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="B76" s="16"/>
-      <c r="C76" s="16"/>
+      <c r="B76" s="22"/>
+      <c r="C76" s="22"/>
       <c r="D76" s="5" t="s">
         <v>117</v>
       </c>
       <c r="E76" s="6"/>
     </row>
     <row r="77" spans="1:5" ht="25.5">
-      <c r="A77" s="16" t="s">
+      <c r="A77" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="B77" s="16"/>
-      <c r="C77" s="16"/>
+      <c r="B77" s="22"/>
+      <c r="C77" s="22"/>
       <c r="D77" s="5"/>
       <c r="E77" s="6"/>
     </row>
     <row r="78" spans="1:5" ht="57">
-      <c r="A78" s="16" t="s">
+      <c r="A78" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="B78" s="16"/>
-      <c r="C78" s="16"/>
+      <c r="B78" s="22"/>
+      <c r="C78" s="22"/>
       <c r="D78" s="5" t="s">
         <v>99</v>
       </c>
@@ -2048,22 +2058,22 @@
       </c>
     </row>
     <row r="79" spans="1:5" ht="25.5">
-      <c r="A79" s="16" t="s">
+      <c r="A79" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="B79" s="16"/>
-      <c r="C79" s="16"/>
+      <c r="B79" s="22"/>
+      <c r="C79" s="22"/>
       <c r="D79" s="5" t="s">
         <v>117</v>
       </c>
       <c r="E79" s="6"/>
     </row>
     <row r="80" spans="1:5" ht="25.5">
-      <c r="A80" s="16" t="s">
+      <c r="A80" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="B80" s="16"/>
-      <c r="C80" s="16"/>
+      <c r="B80" s="22"/>
+      <c r="C80" s="22"/>
       <c r="D80" s="5" t="s">
         <v>99</v>
       </c>
@@ -2072,44 +2082,44 @@
       </c>
     </row>
     <row r="81" spans="1:5" ht="40.5" customHeight="1">
-      <c r="A81" s="17" t="s">
+      <c r="A81" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="B81" s="17"/>
-      <c r="C81" s="17"/>
+      <c r="B81" s="11"/>
+      <c r="C81" s="11"/>
       <c r="D81" s="5" t="s">
         <v>117</v>
       </c>
       <c r="E81" s="6"/>
     </row>
     <row r="82" spans="1:5" ht="33" customHeight="1">
-      <c r="A82" s="17" t="s">
+      <c r="A82" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="B82" s="17"/>
-      <c r="C82" s="18"/>
+      <c r="B82" s="11"/>
+      <c r="C82" s="36"/>
       <c r="D82" s="5" t="s">
         <v>117</v>
       </c>
       <c r="E82" s="6"/>
     </row>
     <row r="83" spans="1:5" ht="34.5" customHeight="1">
-      <c r="A83" s="19" t="s">
+      <c r="A83" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="B83" s="19"/>
-      <c r="C83" s="20"/>
+      <c r="B83" s="20"/>
+      <c r="C83" s="21"/>
       <c r="D83" s="5" t="s">
         <v>117</v>
       </c>
       <c r="E83" s="6"/>
     </row>
     <row r="84" spans="1:5" ht="108" customHeight="1">
-      <c r="A84" s="22" t="s">
+      <c r="A84" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="B84" s="22"/>
-      <c r="C84" s="23"/>
+      <c r="B84" s="30"/>
+      <c r="C84" s="31"/>
       <c r="D84" s="5" t="s">
         <v>99</v>
       </c>
@@ -2118,11 +2128,11 @@
       </c>
     </row>
     <row r="85" spans="1:5" ht="25.5">
-      <c r="A85" s="21" t="s">
+      <c r="A85" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="B85" s="21"/>
-      <c r="C85" s="21"/>
+      <c r="B85" s="29"/>
+      <c r="C85" s="29"/>
       <c r="D85" s="5" t="s">
         <v>99</v>
       </c>
@@ -2131,11 +2141,11 @@
       </c>
     </row>
     <row r="86" spans="1:5" ht="34.5" customHeight="1">
-      <c r="A86" s="21" t="s">
+      <c r="A86" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="B86" s="21"/>
-      <c r="C86" s="21"/>
+      <c r="B86" s="29"/>
+      <c r="C86" s="29"/>
       <c r="D86" s="5" t="s">
         <v>99</v>
       </c>
@@ -2144,22 +2154,22 @@
       </c>
     </row>
     <row r="87" spans="1:5" ht="25.5">
-      <c r="A87" s="14" t="s">
+      <c r="A87" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="B87" s="14"/>
-      <c r="C87" s="15"/>
+      <c r="B87" s="23"/>
+      <c r="C87" s="24"/>
       <c r="D87" s="5" t="s">
         <v>99</v>
       </c>
       <c r="E87" s="6"/>
     </row>
     <row r="88" spans="1:5" ht="25.5">
-      <c r="A88" s="21" t="s">
+      <c r="A88" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="B88" s="21"/>
-      <c r="C88" s="21"/>
+      <c r="B88" s="29"/>
+      <c r="C88" s="29"/>
       <c r="D88" s="5" t="s">
         <v>99</v>
       </c>
@@ -2168,11 +2178,11 @@
       </c>
     </row>
     <row r="89" spans="1:5" ht="25.5">
-      <c r="A89" s="21" t="s">
+      <c r="A89" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="B89" s="21"/>
-      <c r="C89" s="21"/>
+      <c r="B89" s="29"/>
+      <c r="C89" s="29"/>
       <c r="D89" s="5" t="s">
         <v>99</v>
       </c>
@@ -2181,11 +2191,11 @@
       </c>
     </row>
     <row r="90" spans="1:5" ht="25.5">
-      <c r="A90" s="21" t="s">
+      <c r="A90" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="B90" s="21"/>
-      <c r="C90" s="21"/>
+      <c r="B90" s="29"/>
+      <c r="C90" s="29"/>
       <c r="D90" s="5" t="s">
         <v>99</v>
       </c>
@@ -2194,11 +2204,11 @@
       </c>
     </row>
     <row r="91" spans="1:5" ht="25.5">
-      <c r="A91" s="21" t="s">
+      <c r="A91" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="B91" s="21"/>
-      <c r="C91" s="21"/>
+      <c r="B91" s="29"/>
+      <c r="C91" s="29"/>
       <c r="D91" s="5" t="s">
         <v>99</v>
       </c>
@@ -2207,11 +2217,11 @@
       </c>
     </row>
     <row r="92" spans="1:5" ht="30.75" customHeight="1">
-      <c r="A92" s="14" t="s">
+      <c r="A92" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="B92" s="14"/>
-      <c r="C92" s="15"/>
+      <c r="B92" s="23"/>
+      <c r="C92" s="24"/>
       <c r="D92" s="5" t="s">
         <v>99</v>
       </c>
@@ -2220,11 +2230,11 @@
       </c>
     </row>
     <row r="93" spans="1:5" ht="25.5">
-      <c r="A93" s="14" t="s">
+      <c r="A93" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="B93" s="14"/>
-      <c r="C93" s="15"/>
+      <c r="B93" s="23"/>
+      <c r="C93" s="24"/>
       <c r="D93" s="5" t="s">
         <v>99</v>
       </c>
@@ -2233,11 +2243,11 @@
       </c>
     </row>
     <row r="94" spans="1:5" ht="25.5">
-      <c r="A94" s="14" t="s">
+      <c r="A94" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="B94" s="14"/>
-      <c r="C94" s="15"/>
+      <c r="B94" s="23"/>
+      <c r="C94" s="24"/>
       <c r="D94" s="5" t="s">
         <v>99</v>
       </c>
@@ -2246,11 +2256,11 @@
       </c>
     </row>
     <row r="95" spans="1:5" ht="32.25" customHeight="1">
-      <c r="A95" s="14" t="s">
+      <c r="A95" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="B95" s="14"/>
-      <c r="C95" s="15"/>
+      <c r="B95" s="23"/>
+      <c r="C95" s="24"/>
       <c r="D95" s="5" t="s">
         <v>99</v>
       </c>
@@ -2259,11 +2269,11 @@
       </c>
     </row>
     <row r="96" spans="1:5" ht="47.25" customHeight="1">
-      <c r="A96" s="14" t="s">
+      <c r="A96" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="B96" s="14"/>
-      <c r="C96" s="15"/>
+      <c r="B96" s="23"/>
+      <c r="C96" s="24"/>
       <c r="D96" s="5" t="s">
         <v>99</v>
       </c>
@@ -2272,309 +2282,382 @@
       </c>
     </row>
     <row r="97" spans="1:5" ht="25.5">
-      <c r="A97" s="33" t="s">
+      <c r="A97" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="B97" s="33"/>
-      <c r="C97" s="34"/>
+      <c r="B97" s="25"/>
+      <c r="C97" s="26"/>
       <c r="D97" s="5"/>
       <c r="E97" s="6"/>
     </row>
     <row r="98" spans="1:5" ht="37.5" customHeight="1">
-      <c r="A98" s="33" t="s">
+      <c r="A98" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="B98" s="33"/>
-      <c r="C98" s="34"/>
+      <c r="B98" s="25"/>
+      <c r="C98" s="26"/>
       <c r="D98" s="5" t="s">
         <v>99</v>
       </c>
       <c r="E98" s="6"/>
     </row>
     <row r="99" spans="1:5" ht="47.25" customHeight="1">
-      <c r="A99" s="33" t="s">
+      <c r="A99" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="B99" s="33"/>
-      <c r="C99" s="34"/>
+      <c r="B99" s="25"/>
+      <c r="C99" s="26"/>
       <c r="D99" s="5" t="s">
         <v>99</v>
       </c>
       <c r="E99" s="6"/>
     </row>
     <row r="100" spans="1:5">
-      <c r="A100" s="35" t="s">
+      <c r="A100" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="B100" s="36"/>
-      <c r="C100" s="36"/>
-      <c r="D100" s="31" t="s">
-        <v>99</v>
-      </c>
-      <c r="E100" s="28"/>
+      <c r="B100" s="28"/>
+      <c r="C100" s="28"/>
+      <c r="D100" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E100" s="14"/>
     </row>
     <row r="101" spans="1:5">
-      <c r="A101" s="36"/>
-      <c r="B101" s="36"/>
-      <c r="C101" s="36"/>
-      <c r="D101" s="32"/>
-      <c r="E101" s="29"/>
+      <c r="A101" s="28"/>
+      <c r="B101" s="28"/>
+      <c r="C101" s="28"/>
+      <c r="D101" s="13"/>
+      <c r="E101" s="15"/>
     </row>
     <row r="102" spans="1:5">
-      <c r="A102" s="36"/>
-      <c r="B102" s="36"/>
-      <c r="C102" s="36"/>
-      <c r="D102" s="32"/>
-      <c r="E102" s="30"/>
+      <c r="A102" s="28"/>
+      <c r="B102" s="28"/>
+      <c r="C102" s="28"/>
+      <c r="D102" s="13"/>
+      <c r="E102" s="16"/>
     </row>
     <row r="103" spans="1:5">
-      <c r="A103" s="35" t="s">
+      <c r="A103" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="B103" s="36"/>
-      <c r="C103" s="36"/>
-      <c r="D103" s="31" t="s">
-        <v>99</v>
-      </c>
-      <c r="E103" s="28"/>
+      <c r="B103" s="28"/>
+      <c r="C103" s="28"/>
+      <c r="D103" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E103" s="14"/>
     </row>
     <row r="104" spans="1:5">
-      <c r="A104" s="36"/>
-      <c r="B104" s="36"/>
-      <c r="C104" s="36"/>
-      <c r="D104" s="32"/>
-      <c r="E104" s="29"/>
+      <c r="A104" s="28"/>
+      <c r="B104" s="28"/>
+      <c r="C104" s="28"/>
+      <c r="D104" s="13"/>
+      <c r="E104" s="15"/>
     </row>
     <row r="105" spans="1:5" ht="34.5" customHeight="1">
-      <c r="A105" s="36"/>
-      <c r="B105" s="36"/>
-      <c r="C105" s="36"/>
-      <c r="D105" s="32"/>
-      <c r="E105" s="30"/>
+      <c r="A105" s="28"/>
+      <c r="B105" s="28"/>
+      <c r="C105" s="28"/>
+      <c r="D105" s="13"/>
+      <c r="E105" s="16"/>
     </row>
     <row r="106" spans="1:5">
-      <c r="A106" s="35" t="s">
+      <c r="A106" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="B106" s="36"/>
-      <c r="C106" s="36"/>
-      <c r="D106" s="31" t="s">
-        <v>99</v>
-      </c>
-      <c r="E106" s="28"/>
+      <c r="B106" s="28"/>
+      <c r="C106" s="28"/>
+      <c r="D106" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E106" s="14"/>
     </row>
     <row r="107" spans="1:5">
-      <c r="A107" s="36"/>
-      <c r="B107" s="36"/>
-      <c r="C107" s="36"/>
-      <c r="D107" s="32"/>
-      <c r="E107" s="29"/>
+      <c r="A107" s="28"/>
+      <c r="B107" s="28"/>
+      <c r="C107" s="28"/>
+      <c r="D107" s="13"/>
+      <c r="E107" s="15"/>
     </row>
     <row r="108" spans="1:5">
-      <c r="A108" s="36"/>
-      <c r="B108" s="36"/>
-      <c r="C108" s="36"/>
-      <c r="D108" s="32"/>
-      <c r="E108" s="30"/>
+      <c r="A108" s="28"/>
+      <c r="B108" s="28"/>
+      <c r="C108" s="28"/>
+      <c r="D108" s="13"/>
+      <c r="E108" s="16"/>
     </row>
     <row r="109" spans="1:5">
-      <c r="A109" s="35" t="s">
+      <c r="A109" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="B109" s="36"/>
-      <c r="C109" s="36"/>
-      <c r="D109" s="31" t="s">
-        <v>99</v>
-      </c>
-      <c r="E109" s="28"/>
+      <c r="B109" s="28"/>
+      <c r="C109" s="28"/>
+      <c r="D109" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E109" s="14"/>
     </row>
     <row r="110" spans="1:5">
-      <c r="A110" s="36"/>
-      <c r="B110" s="36"/>
-      <c r="C110" s="36"/>
-      <c r="D110" s="32"/>
-      <c r="E110" s="29"/>
+      <c r="A110" s="28"/>
+      <c r="B110" s="28"/>
+      <c r="C110" s="28"/>
+      <c r="D110" s="13"/>
+      <c r="E110" s="15"/>
     </row>
     <row r="111" spans="1:5">
-      <c r="A111" s="36"/>
-      <c r="B111" s="36"/>
-      <c r="C111" s="36"/>
-      <c r="D111" s="32"/>
-      <c r="E111" s="30"/>
+      <c r="A111" s="28"/>
+      <c r="B111" s="28"/>
+      <c r="C111" s="28"/>
+      <c r="D111" s="13"/>
+      <c r="E111" s="16"/>
     </row>
     <row r="112" spans="1:5">
-      <c r="A112" s="35" t="s">
+      <c r="A112" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="B112" s="35"/>
-      <c r="C112" s="35"/>
-      <c r="D112" s="31" t="s">
-        <v>99</v>
-      </c>
-      <c r="E112" s="28"/>
+      <c r="B112" s="27"/>
+      <c r="C112" s="27"/>
+      <c r="D112" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E112" s="14"/>
     </row>
     <row r="113" spans="1:5">
-      <c r="A113" s="35"/>
-      <c r="B113" s="35"/>
-      <c r="C113" s="35"/>
-      <c r="D113" s="32"/>
-      <c r="E113" s="29"/>
+      <c r="A113" s="27"/>
+      <c r="B113" s="27"/>
+      <c r="C113" s="27"/>
+      <c r="D113" s="13"/>
+      <c r="E113" s="15"/>
     </row>
     <row r="114" spans="1:5">
-      <c r="A114" s="35"/>
-      <c r="B114" s="35"/>
-      <c r="C114" s="35"/>
-      <c r="D114" s="32"/>
-      <c r="E114" s="30"/>
+      <c r="A114" s="27"/>
+      <c r="B114" s="27"/>
+      <c r="C114" s="27"/>
+      <c r="D114" s="13"/>
+      <c r="E114" s="16"/>
     </row>
     <row r="115" spans="1:5">
-      <c r="A115" s="35" t="s">
+      <c r="A115" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="B115" s="36"/>
-      <c r="C115" s="36"/>
-      <c r="D115" s="31" t="s">
-        <v>99</v>
-      </c>
-      <c r="E115" s="28"/>
+      <c r="B115" s="28"/>
+      <c r="C115" s="28"/>
+      <c r="D115" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E115" s="14"/>
     </row>
     <row r="116" spans="1:5">
-      <c r="A116" s="36"/>
-      <c r="B116" s="36"/>
-      <c r="C116" s="36"/>
-      <c r="D116" s="32"/>
-      <c r="E116" s="29"/>
+      <c r="A116" s="28"/>
+      <c r="B116" s="28"/>
+      <c r="C116" s="28"/>
+      <c r="D116" s="13"/>
+      <c r="E116" s="15"/>
     </row>
     <row r="117" spans="1:5" ht="36" customHeight="1">
-      <c r="A117" s="36"/>
-      <c r="B117" s="36"/>
-      <c r="C117" s="36"/>
-      <c r="D117" s="32"/>
-      <c r="E117" s="30"/>
+      <c r="A117" s="28"/>
+      <c r="B117" s="28"/>
+      <c r="C117" s="28"/>
+      <c r="D117" s="13"/>
+      <c r="E117" s="16"/>
     </row>
     <row r="118" spans="1:5">
-      <c r="A118" s="36" t="s">
+      <c r="A118" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="B118" s="36"/>
-      <c r="C118" s="36"/>
-      <c r="D118" s="31" t="s">
-        <v>99</v>
-      </c>
-      <c r="E118" s="28"/>
+      <c r="B118" s="28"/>
+      <c r="C118" s="28"/>
+      <c r="D118" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E118" s="14"/>
     </row>
     <row r="119" spans="1:5">
-      <c r="A119" s="36"/>
-      <c r="B119" s="36"/>
-      <c r="C119" s="36"/>
-      <c r="D119" s="32"/>
-      <c r="E119" s="29"/>
+      <c r="A119" s="28"/>
+      <c r="B119" s="28"/>
+      <c r="C119" s="28"/>
+      <c r="D119" s="13"/>
+      <c r="E119" s="15"/>
     </row>
     <row r="120" spans="1:5">
-      <c r="A120" s="36"/>
-      <c r="B120" s="36"/>
-      <c r="C120" s="36"/>
-      <c r="D120" s="32"/>
-      <c r="E120" s="30"/>
+      <c r="A120" s="28"/>
+      <c r="B120" s="28"/>
+      <c r="C120" s="28"/>
+      <c r="D120" s="13"/>
+      <c r="E120" s="16"/>
     </row>
     <row r="121" spans="1:5">
-      <c r="A121" s="36" t="s">
+      <c r="A121" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="B121" s="36"/>
-      <c r="C121" s="36"/>
-      <c r="D121" s="31" t="s">
-        <v>99</v>
-      </c>
-      <c r="E121" s="28"/>
+      <c r="B121" s="28"/>
+      <c r="C121" s="28"/>
+      <c r="D121" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E121" s="14"/>
     </row>
     <row r="122" spans="1:5">
-      <c r="A122" s="36"/>
-      <c r="B122" s="36"/>
-      <c r="C122" s="36"/>
-      <c r="D122" s="32"/>
-      <c r="E122" s="29"/>
+      <c r="A122" s="28"/>
+      <c r="B122" s="28"/>
+      <c r="C122" s="28"/>
+      <c r="D122" s="13"/>
+      <c r="E122" s="15"/>
     </row>
     <row r="123" spans="1:5">
-      <c r="A123" s="36"/>
-      <c r="B123" s="36"/>
-      <c r="C123" s="36"/>
-      <c r="D123" s="32"/>
-      <c r="E123" s="30"/>
+      <c r="A123" s="28"/>
+      <c r="B123" s="28"/>
+      <c r="C123" s="28"/>
+      <c r="D123" s="13"/>
+      <c r="E123" s="16"/>
     </row>
     <row r="124" spans="1:5">
-      <c r="A124" s="35" t="s">
+      <c r="A124" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="B124" s="36"/>
-      <c r="C124" s="36"/>
-      <c r="D124" s="31" t="s">
-        <v>99</v>
-      </c>
-      <c r="E124" s="28"/>
+      <c r="B124" s="28"/>
+      <c r="C124" s="28"/>
+      <c r="D124" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E124" s="14"/>
     </row>
     <row r="125" spans="1:5">
-      <c r="A125" s="36"/>
-      <c r="B125" s="36"/>
-      <c r="C125" s="36"/>
-      <c r="D125" s="32"/>
-      <c r="E125" s="29"/>
+      <c r="A125" s="28"/>
+      <c r="B125" s="28"/>
+      <c r="C125" s="28"/>
+      <c r="D125" s="13"/>
+      <c r="E125" s="15"/>
     </row>
     <row r="126" spans="1:5">
-      <c r="A126" s="36"/>
-      <c r="B126" s="36"/>
-      <c r="C126" s="36"/>
-      <c r="D126" s="32"/>
-      <c r="E126" s="30"/>
+      <c r="A126" s="28"/>
+      <c r="B126" s="28"/>
+      <c r="C126" s="28"/>
+      <c r="D126" s="13"/>
+      <c r="E126" s="16"/>
     </row>
     <row r="127" spans="1:5">
-      <c r="A127" s="45" t="s">
+      <c r="A127" s="37" t="s">
         <v>131</v>
       </c>
-      <c r="B127" s="37"/>
-      <c r="C127" s="38"/>
-      <c r="D127" s="31" t="s">
-        <v>99</v>
-      </c>
-      <c r="E127" s="28"/>
+      <c r="B127" s="38"/>
+      <c r="C127" s="39"/>
+      <c r="D127" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E127" s="14"/>
     </row>
     <row r="128" spans="1:5">
-      <c r="A128" s="39"/>
-      <c r="B128" s="40"/>
-      <c r="C128" s="41"/>
-      <c r="D128" s="32"/>
-      <c r="E128" s="29"/>
+      <c r="A128" s="40"/>
+      <c r="B128" s="41"/>
+      <c r="C128" s="42"/>
+      <c r="D128" s="13"/>
+      <c r="E128" s="15"/>
     </row>
     <row r="129" spans="1:5">
-      <c r="A129" s="42"/>
-      <c r="B129" s="43"/>
-      <c r="C129" s="44"/>
-      <c r="D129" s="32"/>
-      <c r="E129" s="30"/>
-    </row>
-    <row r="130" spans="1:5" ht="51" customHeight="1"/>
+      <c r="A129" s="43"/>
+      <c r="B129" s="44"/>
+      <c r="C129" s="45"/>
+      <c r="D129" s="13"/>
+      <c r="E129" s="16"/>
+    </row>
+    <row r="130" spans="1:5" ht="51" customHeight="1">
+      <c r="A130" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="B130" s="46"/>
+      <c r="C130" s="46"/>
+      <c r="D130" s="47" t="s">
+        <v>99</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A5:E5" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="0" showButton="0"/>
     <filterColumn colId="1" showButton="0"/>
   </autoFilter>
-  <mergeCells count="127">
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="D124:D126"/>
-    <mergeCell ref="D127:D129"/>
-    <mergeCell ref="E100:E102"/>
-    <mergeCell ref="E103:E105"/>
-    <mergeCell ref="E106:E108"/>
-    <mergeCell ref="E109:E111"/>
-    <mergeCell ref="E112:E114"/>
-    <mergeCell ref="E115:E117"/>
-    <mergeCell ref="E118:E120"/>
-    <mergeCell ref="E121:E123"/>
-    <mergeCell ref="E124:E126"/>
-    <mergeCell ref="E127:E129"/>
+  <mergeCells count="128">
+    <mergeCell ref="A130:C130"/>
+    <mergeCell ref="A115:C117"/>
+    <mergeCell ref="A118:C120"/>
+    <mergeCell ref="A121:C123"/>
+    <mergeCell ref="A124:C126"/>
+    <mergeCell ref="A127:C129"/>
+    <mergeCell ref="D100:D102"/>
+    <mergeCell ref="D103:D105"/>
+    <mergeCell ref="D106:D108"/>
+    <mergeCell ref="D109:D111"/>
+    <mergeCell ref="D112:D114"/>
+    <mergeCell ref="D115:D117"/>
+    <mergeCell ref="D118:D120"/>
+    <mergeCell ref="D121:D123"/>
+    <mergeCell ref="A103:C105"/>
+    <mergeCell ref="A106:C108"/>
+    <mergeCell ref="A109:C111"/>
+    <mergeCell ref="A112:C114"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A93:C93"/>
+    <mergeCell ref="A94:C94"/>
+    <mergeCell ref="A80:C80"/>
+    <mergeCell ref="A81:C81"/>
+    <mergeCell ref="A82:C82"/>
+    <mergeCell ref="A83:C83"/>
+    <mergeCell ref="A79:C79"/>
+    <mergeCell ref="A78:C78"/>
+    <mergeCell ref="A75:C75"/>
+    <mergeCell ref="A76:C76"/>
+    <mergeCell ref="A77:C77"/>
+    <mergeCell ref="A72:C72"/>
+    <mergeCell ref="A73:C73"/>
+    <mergeCell ref="A92:C92"/>
+    <mergeCell ref="A67:C67"/>
+    <mergeCell ref="A68:C68"/>
+    <mergeCell ref="A69:C69"/>
+    <mergeCell ref="A70:C70"/>
+    <mergeCell ref="A71:C71"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="A96:C96"/>
+    <mergeCell ref="A97:C97"/>
+    <mergeCell ref="A98:C98"/>
+    <mergeCell ref="A99:C99"/>
+    <mergeCell ref="A100:C102"/>
+    <mergeCell ref="A95:C95"/>
+    <mergeCell ref="A74:C74"/>
+    <mergeCell ref="A89:C89"/>
+    <mergeCell ref="A90:C90"/>
+    <mergeCell ref="A91:C91"/>
+    <mergeCell ref="A85:C85"/>
+    <mergeCell ref="A86:C86"/>
+    <mergeCell ref="A87:C87"/>
+    <mergeCell ref="A88:C88"/>
+    <mergeCell ref="A84:C84"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="A66:C66"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="A50:C50"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="A49:C49"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="A7:C7"/>
@@ -2599,6 +2682,22 @@
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="A14:C14"/>
     <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="D124:D126"/>
+    <mergeCell ref="D127:D129"/>
+    <mergeCell ref="E100:E102"/>
+    <mergeCell ref="E103:E105"/>
+    <mergeCell ref="E106:E108"/>
+    <mergeCell ref="E109:E111"/>
+    <mergeCell ref="E112:E114"/>
+    <mergeCell ref="E115:E117"/>
+    <mergeCell ref="E118:E120"/>
+    <mergeCell ref="E121:E123"/>
+    <mergeCell ref="E124:E126"/>
+    <mergeCell ref="E127:E129"/>
     <mergeCell ref="A33:C33"/>
     <mergeCell ref="A41:C41"/>
     <mergeCell ref="A36:C36"/>
@@ -2607,91 +2706,12 @@
     <mergeCell ref="A39:C39"/>
     <mergeCell ref="A40:C40"/>
     <mergeCell ref="A42:C42"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="A52:C52"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="A50:C50"/>
-    <mergeCell ref="A51:C51"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="A58:C58"/>
-    <mergeCell ref="A54:C54"/>
-    <mergeCell ref="A55:C55"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A65:C65"/>
-    <mergeCell ref="A66:C66"/>
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="A61:C61"/>
-    <mergeCell ref="A62:C62"/>
-    <mergeCell ref="A63:C63"/>
-    <mergeCell ref="A96:C96"/>
-    <mergeCell ref="A97:C97"/>
-    <mergeCell ref="A98:C98"/>
-    <mergeCell ref="A99:C99"/>
-    <mergeCell ref="A100:C102"/>
-    <mergeCell ref="A95:C95"/>
-    <mergeCell ref="A74:C74"/>
-    <mergeCell ref="A89:C89"/>
-    <mergeCell ref="A90:C90"/>
-    <mergeCell ref="A91:C91"/>
-    <mergeCell ref="A85:C85"/>
-    <mergeCell ref="A86:C86"/>
-    <mergeCell ref="A87:C87"/>
-    <mergeCell ref="A88:C88"/>
-    <mergeCell ref="A84:C84"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A93:C93"/>
-    <mergeCell ref="A94:C94"/>
-    <mergeCell ref="A80:C80"/>
-    <mergeCell ref="A81:C81"/>
-    <mergeCell ref="A82:C82"/>
-    <mergeCell ref="A83:C83"/>
-    <mergeCell ref="A79:C79"/>
-    <mergeCell ref="A78:C78"/>
-    <mergeCell ref="A75:C75"/>
-    <mergeCell ref="A76:C76"/>
-    <mergeCell ref="A77:C77"/>
-    <mergeCell ref="A72:C72"/>
-    <mergeCell ref="A73:C73"/>
-    <mergeCell ref="A92:C92"/>
-    <mergeCell ref="A67:C67"/>
-    <mergeCell ref="A68:C68"/>
-    <mergeCell ref="A69:C69"/>
-    <mergeCell ref="A70:C70"/>
-    <mergeCell ref="A71:C71"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="A60:C60"/>
-    <mergeCell ref="A57:C57"/>
-    <mergeCell ref="A115:C117"/>
-    <mergeCell ref="A118:C120"/>
-    <mergeCell ref="A121:C123"/>
-    <mergeCell ref="A124:C126"/>
-    <mergeCell ref="A127:C129"/>
-    <mergeCell ref="D100:D102"/>
-    <mergeCell ref="D103:D105"/>
-    <mergeCell ref="D106:D108"/>
-    <mergeCell ref="D109:D111"/>
-    <mergeCell ref="D112:D114"/>
-    <mergeCell ref="D115:D117"/>
-    <mergeCell ref="D118:D120"/>
-    <mergeCell ref="D121:D123"/>
-    <mergeCell ref="A103:C105"/>
-    <mergeCell ref="A106:C108"/>
-    <mergeCell ref="A109:C111"/>
-    <mergeCell ref="A112:C114"/>
   </mergeCells>
-  <conditionalFormatting sqref="A5:C83 A1:C2 A4 A85:C99 A130:C1048576 A103 A106 A109 A112 A115 A118 A121 A124 A127">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  <conditionalFormatting sqref="A5:C83 A1:C2 A4 A85:C99 A131:C1048576 A103 A106 A109 A112 A115 A118 A121 A124 A127 A130">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:C83 A85:C99">
-    <cfRule type="duplicateValues" dxfId="1" priority="141"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="141"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
